--- a/biology/Botanique/Pachyphytum_oviferum/Pachyphytum_oviferum.xlsx
+++ b/biology/Botanique/Pachyphytum_oviferum/Pachyphytum_oviferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachyphytum oviferum, la Plante dragée, est l'espèce la plus connue du genre de plante succulente Pachyphytum de la famille des Crassulaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire du Mexique, dans des falaises rocheuses vers 1200 m d'altitude près de San Luis Potosi où elle est endémique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspect le plus marquant est constitué par les feuilles ovoïdes en forme de dragées ou de petits œufs serrées les unes contre les autres et qui ont donné leur nom à l'espèce. Les feuilles disposées en rosette sont de couleur gris-vert clair pruinés de 2 à 4 cm de long et environ 2 cm de large.
 Les tiges sont dressées puis retombantes de 20 cm de long sur 0,7 à 1,3 cm de large. Elles portent des feuilles de 3 à 5 cm de long pour 1,8 à 3 cm de large et 8 à 17 mm d'épaisseur. Elles sont de couleur gris-bleuâtre à glauques, avec un aspect pruiné.
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pachy du grec épais
 phytum : feuille
@@ -607,7 +625,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture est facile, elle craint l'excès d'arrosage et la pourriture. Elle a besoin d'un sol minéral et bien drainé. Un récipient plus large que haut facilite la croissance. Éclairage ensoleillé (même plein soleil).
 Arrosages moyens en été, nuls en hiver.
